--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vtn-Itgav.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itgav</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H2">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J2">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N2">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P2">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q2">
-        <v>220.7714631123428</v>
+        <v>117.975217939272</v>
       </c>
       <c r="R2">
-        <v>220.7714631123428</v>
+        <v>1061.776961453448</v>
       </c>
       <c r="S2">
-        <v>0.05667076979687456</v>
+        <v>0.02046911422792383</v>
       </c>
       <c r="T2">
-        <v>0.05667076979687456</v>
+        <v>0.02046911422792384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H3">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I3">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J3">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N3">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P3">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q3">
-        <v>709.1099252964418</v>
+        <v>289.812682725752</v>
       </c>
       <c r="R3">
-        <v>709.1099252964418</v>
+        <v>2608.314144531768</v>
       </c>
       <c r="S3">
-        <v>0.1820244553830965</v>
+        <v>0.05028351725926105</v>
       </c>
       <c r="T3">
-        <v>0.1820244553830965</v>
+        <v>0.05028351725926105</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>17.4744022271255</v>
+        <v>7.134618</v>
       </c>
       <c r="H4">
-        <v>17.4744022271255</v>
+        <v>21.403854</v>
       </c>
       <c r="I4">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="J4">
-        <v>0.3260488769115795</v>
+        <v>0.0965317920926077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.4743315989621</v>
+        <v>20.825229</v>
       </c>
       <c r="N4">
-        <v>19.4743315989621</v>
+        <v>62.475687</v>
       </c>
       <c r="O4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="P4">
-        <v>0.2679158185087009</v>
+        <v>0.2670535794123827</v>
       </c>
       <c r="Q4">
-        <v>340.3023034646837</v>
+        <v>148.580053677522</v>
       </c>
       <c r="R4">
-        <v>340.3023034646837</v>
+        <v>1337.220483097698</v>
       </c>
       <c r="S4">
-        <v>0.0873536517316085</v>
+        <v>0.02577916060542283</v>
       </c>
       <c r="T4">
-        <v>0.0873536517316085</v>
+        <v>0.02577916060542283</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>36.1200232241983</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H5">
-        <v>36.1200232241983</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I5">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846793</v>
       </c>
       <c r="J5">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846794</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.6339922958646</v>
+        <v>16.535604</v>
       </c>
       <c r="N5">
-        <v>12.6339922958646</v>
+        <v>49.606812</v>
       </c>
       <c r="O5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="P5">
-        <v>0.1738106578795025</v>
+        <v>0.2120453146491552</v>
       </c>
       <c r="Q5">
-        <v>456.3400951409717</v>
+        <v>289.505029631788</v>
       </c>
       <c r="R5">
-        <v>456.3400951409717</v>
+        <v>2605.545266686092</v>
       </c>
       <c r="S5">
-        <v>0.1171398880826279</v>
+        <v>0.05023013836805896</v>
       </c>
       <c r="T5">
-        <v>0.1171398880826279</v>
+        <v>0.05023013836805897</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>36.1200232241983</v>
+        <v>17.50798033333334</v>
       </c>
       <c r="H6">
-        <v>36.1200232241983</v>
+        <v>52.52394100000001</v>
       </c>
       <c r="I6">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846793</v>
       </c>
       <c r="J6">
-        <v>0.6739511230884204</v>
+        <v>0.2368839813846794</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.5799246280191</v>
+        <v>40.62063066666667</v>
       </c>
       <c r="N6">
-        <v>40.5799246280191</v>
+        <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="P6">
-        <v>0.5582735236117967</v>
+        <v>0.5209011059384622</v>
       </c>
       <c r="Q6">
-        <v>1465.747820000266</v>
+        <v>711.1852028395971</v>
       </c>
       <c r="R6">
-        <v>1465.747820000266</v>
+        <v>6400.666825556374</v>
       </c>
       <c r="S6">
-        <v>0.3762490682287002</v>
+        <v>0.1233931278823856</v>
       </c>
       <c r="T6">
-        <v>0.3762490682287002</v>
+        <v>0.1233931278823856</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.50798033333334</v>
+      </c>
+      <c r="H7">
+        <v>52.52394100000001</v>
+      </c>
+      <c r="I7">
+        <v>0.2368839813846793</v>
+      </c>
+      <c r="J7">
+        <v>0.2368839813846794</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>20.825229</v>
+      </c>
+      <c r="N7">
+        <v>62.475687</v>
+      </c>
+      <c r="O7">
+        <v>0.2670535794123827</v>
+      </c>
+      <c r="P7">
+        <v>0.2670535794123827</v>
+      </c>
+      <c r="Q7">
+        <v>364.607699769163</v>
+      </c>
+      <c r="R7">
+        <v>3281.469297922467</v>
+      </c>
+      <c r="S7">
+        <v>0.06326071513423484</v>
+      </c>
+      <c r="T7">
+        <v>0.06326071513423485</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H8">
+        <v>147.800752</v>
+      </c>
+      <c r="I8">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J8">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>16.535604</v>
+      </c>
+      <c r="N8">
+        <v>49.606812</v>
+      </c>
+      <c r="O8">
+        <v>0.2120453146491552</v>
+      </c>
+      <c r="P8">
+        <v>0.2120453146491552</v>
+      </c>
+      <c r="Q8">
+        <v>814.6582353247361</v>
+      </c>
+      <c r="R8">
+        <v>7331.924117922625</v>
+      </c>
+      <c r="S8">
+        <v>0.1413460620531724</v>
+      </c>
+      <c r="T8">
+        <v>0.1413460620531725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="H7">
-        <v>36.1200232241983</v>
-      </c>
-      <c r="I7">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="J7">
-        <v>0.6739511230884204</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>19.4743315989621</v>
-      </c>
-      <c r="N7">
-        <v>19.4743315989621</v>
-      </c>
-      <c r="O7">
-        <v>0.2679158185087009</v>
-      </c>
-      <c r="P7">
-        <v>0.2679158185087009</v>
-      </c>
-      <c r="Q7">
-        <v>703.4133096302498</v>
-      </c>
-      <c r="R7">
-        <v>703.4133096302498</v>
-      </c>
-      <c r="S7">
-        <v>0.1805621667770924</v>
-      </c>
-      <c r="T7">
-        <v>0.1805621667770924</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H9">
+        <v>147.800752</v>
+      </c>
+      <c r="I9">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J9">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>40.62063066666667</v>
+      </c>
+      <c r="N9">
+        <v>121.861892</v>
+      </c>
+      <c r="O9">
+        <v>0.5209011059384622</v>
+      </c>
+      <c r="P9">
+        <v>0.5209011059384622</v>
+      </c>
+      <c r="Q9">
+        <v>2001.253253082532</v>
+      </c>
+      <c r="R9">
+        <v>18011.27927774279</v>
+      </c>
+      <c r="S9">
+        <v>0.3472244607968155</v>
+      </c>
+      <c r="T9">
+        <v>0.3472244607968156</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>49.26691733333334</v>
+      </c>
+      <c r="H10">
+        <v>147.800752</v>
+      </c>
+      <c r="I10">
+        <v>0.6665842265227129</v>
+      </c>
+      <c r="J10">
+        <v>0.666584226522713</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>20.825229</v>
+      </c>
+      <c r="N10">
+        <v>62.475687</v>
+      </c>
+      <c r="O10">
+        <v>0.2670535794123827</v>
+      </c>
+      <c r="P10">
+        <v>0.2670535794123827</v>
+      </c>
+      <c r="Q10">
+        <v>1025.994835590736</v>
+      </c>
+      <c r="R10">
+        <v>9233.953520316625</v>
+      </c>
+      <c r="S10">
+        <v>0.178013703672725</v>
+      </c>
+      <c r="T10">
+        <v>0.178013703672725</v>
       </c>
     </row>
   </sheetData>
